--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T08:58:45+00:00</t>
+    <t>2023-07-11T09:02:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="417">
   <si>
     <t>Property</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T09:02:59+00:00</t>
+    <t>2023-07-26T14:54:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -460,8 +460,8 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t>Practitioner {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitioner}
-Organization {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization}Patient {http://interopsante.org/fhir/StructureDefinition/FrPatient}PractitionerRole {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole}Device</t>
+    <t xml:space="preserve">Resource
+</t>
   </si>
   <si>
     <t>Contained, inline Resources</t>
@@ -574,9 +574,6 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>XDS contentTypeCode CI-SIS</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J03-XdsContentTypeCode-CISIS/FHIR/JDV-J03-XdsContentTypeCode-CISIS</t>
   </si>
   <si>
@@ -625,10 +622,39 @@
 </t>
   </si>
   <si>
-    <t>Intended recipient of the SubmissionSet</t>
+    <t>Représente le destinataire du lot de soumission. Il peut s'agir d'un AsPractitioner associé à un AsPractitionerRole ou bien d'une AsOrganization.</t>
   </si>
   <si>
     <t>holds the identity of the organization or person the SubmissionSet is intended. For XDR and eMail (e.g. Direct) this tends to be a Practitioner or Patient with a telecom holding an email, but this is not strictly required.</t>
+  </si>
+  <si>
+    <t>List.extension:intendedRecipient.id</t>
+  </si>
+  <si>
+    <t>List.extension:intendedRecipient.extension</t>
+  </si>
+  <si>
+    <t>List.extension:intendedRecipient.url</t>
+  </si>
+  <si>
+    <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/ihe-intendedRecipient</t>
+  </si>
+  <si>
+    <t>List.extension:intendedRecipient.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|Organization|Patient|RelatedPerson|Group|Device|Location) &lt;&lt;contained&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>List.extension:intendedRecipient.value[x]:valueReference</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
   </si>
   <si>
     <t>List.extension:isArchived</t>
@@ -648,41 +674,6 @@
   </si>
   <si>
     <t>statut : [1..1] Code</t>
-  </si>
-  <si>
-    <t>List.extension:PDSm_intendedRecipient</t>
-  </si>
-  <si>
-    <t>PDSm_intendedRecipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/PDSmintendedrecipient}
-</t>
-  </si>
-  <si>
-    <t>Représente le destinataire du lot de soumission</t>
-  </si>
-  <si>
-    <t>Les ressources référencées sont : - PractitionerRole : Dans le cas d’un destinaire professionnel, c’est le profil PractitionerRoleOrgani zationalRoleRASS représentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfes sionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner. - Organization contrainte au profil FrOrganization</t>
-  </si>
-  <si>
-    <t>List.extension:PDSm_intendedRecipient.id</t>
-  </si>
-  <si>
-    <t>List.extension:PDSm_intendedRecipient.extension</t>
-  </si>
-  <si>
-    <t>List.extension:PDSm_intendedRecipient.url</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/PDSmintendedrecipient</t>
-  </si>
-  <si>
-    <t>List.extension:PDSm_intendedRecipient.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization) &lt;&lt;contained&gt;&gt;
-</t>
   </si>
   <si>
     <t>List.modifierExtension</t>
@@ -883,11 +874,11 @@
     <t>List.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient)
 </t>
   </si>
   <si>
-    <t>Référence vers la ressource Patient contained titulaire du dossier.</t>
+    <t>Référence vers la ressource Patient titulaire du dossier.</t>
   </si>
   <si>
     <t>The common subject (or patient) of the resources that are in the list if there is one.</t>
@@ -1013,10 +1004,10 @@
 </t>
   </si>
   <si>
-    <t>Organisation auteur du document</t>
-  </si>
-  <si>
     <t>Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut “source” n’est pas renseigné, autrement dit si l’auteur est une personne morale, la cardinalité est contrainte à [1..1].</t>
+  </si>
+  <si>
+    <t>When the author of the SubmissionSet is an Organization, this extension shall be used.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1059,13 +1050,6 @@
   </si>
   <si>
     <t>List.source.extension:authorOrg.value[x]:valueReference</t>
-  </si>
-  <si>
-    <t>valueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
   </si>
   <si>
     <t>List.source.reference</t>
@@ -1671,14 +1655,14 @@
   <cols>
     <col min="1" max="1" width="59.5625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="30.06640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.1640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="252.3984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="192.21875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4038,27 +4022,25 @@
       <c r="X21" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Y21" s="2"/>
+      <c r="Z21" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Z21" t="s" s="2">
+      <c r="AA21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB21" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
@@ -4087,13 +4069,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>172</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>38</v>
@@ -4172,7 +4154,7 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
@@ -4201,13 +4183,13 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>147</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>38</v>
@@ -4229,13 +4211,13 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4310,18 +4292,18 @@
         <v>38</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>147</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>38</v>
@@ -4331,10 +4313,10 @@
         <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>38</v>
@@ -4343,13 +4325,13 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4429,14 +4411,12 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>38</v>
       </c>
@@ -4457,13 +4437,13 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>197</v>
+        <v>61</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4514,22 +4494,22 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>38</v>
@@ -4538,19 +4518,17 @@
         <v>38</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>199</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>38</v>
       </c>
@@ -4559,10 +4537,10 @@
         <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>38</v>
@@ -4571,13 +4549,13 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4616,19 +4594,19 @@
         <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
@@ -4657,10 +4635,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4668,7 +4646,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>46</v>
@@ -4683,22 +4661,24 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>38</v>
@@ -4740,10 +4720,10 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>46</v>
@@ -4755,7 +4735,7 @@
         <v>38</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>38</v>
@@ -4769,10 +4749,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4780,10 +4760,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4795,13 +4775,13 @@
         <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4840,34 +4820,32 @@
         <v>38</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>38</v>
@@ -4881,12 +4859,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>38</v>
       </c>
@@ -4907,24 +4887,22 @@
         <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>38</v>
@@ -4966,10 +4944,10 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>46</v>
@@ -4978,7 +4956,7 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>146</v>
@@ -4995,12 +4973,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>38</v>
       </c>
@@ -5021,13 +5001,13 @@
         <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5078,22 +5058,22 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>38</v>
@@ -5102,15 +5082,15 @@
         <v>38</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>38</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5190,7 +5170,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -5219,10 +5199,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5245,13 +5225,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5290,7 +5270,7 @@
         <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
@@ -5300,7 +5280,7 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
@@ -5315,13 +5295,13 @@
         <v>58</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>38</v>
@@ -5329,13 +5309,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>38</v>
@@ -5357,13 +5337,13 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5414,7 +5394,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -5429,7 +5409,7 @@
         <v>58</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>38</v>
@@ -5438,18 +5418,18 @@
         <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>38</v>
@@ -5471,13 +5451,13 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5528,7 +5508,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -5543,7 +5523,7 @@
         <v>58</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>38</v>
@@ -5552,15 +5532,15 @@
         <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5586,13 +5566,13 @@
         <v>123</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5603,29 +5583,29 @@
         <v>38</v>
       </c>
       <c r="S35" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="T35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="AA35" t="s" s="2">
         <v>38</v>
       </c>
@@ -5642,7 +5622,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>46</v>
@@ -5657,24 +5637,24 @@
         <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5700,16 +5680,16 @@
         <v>123</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="O36" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -5719,7 +5699,7 @@
         <v>38</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>38</v>
@@ -5734,13 +5714,13 @@
         <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>38</v>
@@ -5758,7 +5738,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>46</v>
@@ -5773,13 +5753,13 @@
         <v>58</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -5787,10 +5767,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5816,14 +5796,14 @@
         <v>60</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>38</v>
@@ -5836,7 +5816,7 @@
         <v>38</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>38</v>
@@ -5872,7 +5852,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
@@ -5887,24 +5867,24 @@
         <v>58</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5930,16 +5910,16 @@
         <v>173</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>38</v>
@@ -5949,7 +5929,7 @@
         <v>38</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>38</v>
@@ -5964,11 +5944,11 @@
         <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>38</v>
@@ -5986,7 +5966,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -6001,13 +5981,13 @@
         <v>58</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>38</v>
@@ -6015,10 +5995,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6041,19 +6021,19 @@
         <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>38</v>
@@ -6102,7 +6082,7 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
@@ -6117,24 +6097,24 @@
         <v>58</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6157,13 +6137,13 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6214,7 +6194,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
@@ -6229,10 +6209,10 @@
         <v>58</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>64</v>
@@ -6243,10 +6223,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6269,19 +6249,19 @@
         <v>47</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6330,7 +6310,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
@@ -6345,28 +6325,28 @@
         <v>58</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>298</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6385,19 +6365,19 @@
         <v>47</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
@@ -6446,7 +6426,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -6458,16 +6438,16 @@
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6475,10 +6455,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6587,10 +6567,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6701,13 +6681,13 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>38</v>
@@ -6729,13 +6709,13 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6798,7 +6778,7 @@
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
@@ -6810,15 +6790,15 @@
         <v>38</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6927,10 +6907,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7039,10 +7019,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7082,7 +7062,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>38</v>
@@ -7153,10 +7133,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7179,7 +7159,7 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>174</v>
@@ -7224,17 +7204,17 @@
         <v>38</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
@@ -7263,13 +7243,13 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>38</v>
@@ -7291,7 +7271,7 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>331</v>
+        <v>201</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>174</v>
@@ -7348,7 +7328,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -7377,10 +7357,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7406,13 +7386,13 @@
         <v>60</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7462,7 +7442,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
@@ -7471,7 +7451,7 @@
         <v>46</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>58</v>
@@ -7491,10 +7471,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7520,13 +7500,13 @@
         <v>88</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7555,10 +7535,10 @@
         <v>105</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>38</v>
@@ -7576,7 +7556,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
@@ -7605,10 +7585,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7631,16 +7611,16 @@
         <v>47</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7690,7 +7670,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
@@ -7705,7 +7685,7 @@
         <v>58</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>38</v>
@@ -7719,10 +7699,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7748,13 +7728,13 @@
         <v>60</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7804,7 +7784,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
@@ -7833,10 +7813,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7862,16 +7842,16 @@
         <v>173</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -7899,10 +7879,10 @@
         <v>127</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>38</v>
@@ -7920,7 +7900,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
@@ -7935,7 +7915,7 @@
         <v>58</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>38</v>
@@ -7949,10 +7929,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7975,13 +7955,13 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8032,7 +8012,7 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
@@ -8047,24 +8027,24 @@
         <v>58</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8087,16 +8067,16 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8146,7 +8126,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
@@ -8155,13 +8135,13 @@
         <v>37</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>38</v>
@@ -8175,10 +8155,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8287,10 +8267,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8401,14 +8381,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8430,16 +8410,16 @@
         <v>67</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>70</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>38</v>
@@ -8488,7 +8468,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -8517,10 +8497,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8546,16 +8526,16 @@
         <v>173</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>38</v>
@@ -8583,10 +8563,10 @@
         <v>113</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>38</v>
@@ -8604,7 +8584,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
@@ -8619,7 +8599,7 @@
         <v>58</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>38</v>
@@ -8633,10 +8613,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8659,85 +8639,85 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q62" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="R62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI62" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q62" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>38</v>
@@ -8751,10 +8731,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8777,17 +8757,17 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>38</v>
@@ -8836,7 +8816,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -8851,7 +8831,7 @@
         <v>58</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>38</v>
@@ -8865,10 +8845,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8891,13 +8871,13 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8948,7 +8928,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>46</v>
@@ -8963,24 +8943,24 @@
         <v>58</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9006,16 +8986,16 @@
         <v>173</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>38</v>
@@ -9043,10 +9023,10 @@
         <v>127</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>38</v>
@@ -9064,7 +9044,7 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
@@ -9073,13 +9053,13 @@
         <v>46</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>38</v>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T14:54:45+00:00</t>
+    <t>2023-07-26T15:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil spécifique dérivé du profil IHE MHD v4.0.1 « ComprehensiveSubmissionSet  » créé pour le volet ANS "Partage de documents de santé en mobilité" ; ce profil concerne le lot de soumission.</t>
+    <t>Profil spécifique dérivé du profil IHE MHD « ComprehensiveSubmissionSet » créé pour le volet ANS "Partage de documents de santé en mobilité" ; ce profil concerne le lot de soumission.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="415">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T15:00:21+00:00</t>
+    <t>2023-07-26T15:44:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -464,7 +464,7 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
+    <t>Ressource contenue. Dans le cadre de ce profil, il est obligatoire qu'il y ait au moins une ressource contenue : source ou source.extension[authorOrg]</t>
   </si>
   <si>
     <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
@@ -963,7 +963,7 @@
 </t>
   </si>
   <si>
-    <t>Représente les personnes physiques ou morales et/ou les dispositifs auteurs d’un lot de soumission.</t>
+    <t>Représente l'auteur du lot de soumission. Si l'auteur est une organisation, utiliser l'extension authorOrg. Si l’auteur est une personne physique ou un dispositif, utiliser l’attribut source.reference .</t>
   </si>
   <si>
     <t>The entity responsible for deciding what the contents of the list were. Where the list was created by a human, this is the same as the author of the list.</t>
@@ -973,10 +973,6 @@
   </si>
   <si>
     <t>Allows follow-up as well as context.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-source:Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut "ihe-authorOrg" n’est pas renseigné, autrement dit si l’auteur est une personne physique ou un dispositif. {f:source}</t>
   </si>
   <si>
     <t>.participation[typeCode&lt;AUT].role[classCode=REL].player[classCode=PSN,determinerCode=INST] or .participation[typeCode&lt;AUT].role[classCode=REL].player[classCode=DEV,determinerCode=INST]</t>
@@ -1004,15 +1000,10 @@
 </t>
   </si>
   <si>
-    <t>Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut “source” n’est pas renseigné, autrement dit si l’auteur est une personne morale, la cardinalité est contrainte à [1..1].</t>
+    <t>Auteur organisationnel du document</t>
   </si>
   <si>
     <t>When the author of the SubmissionSet is an Organization, this extension shall be used.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}constr-bind-authororg:Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut "source" n’est pas renseigné, autrement dit si l’auteur est une personne morale, la cardinalité est contrainte à [1..1].
-La ressource référencée doit être présente sous l’élément List.contained. {f:source/f:extension[authorOrg]}</t>
   </si>
   <si>
     <t>auteur : [1..1] Identifiant</t>
@@ -6438,16 +6429,16 @@
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6455,10 +6446,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6567,10 +6558,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6681,13 +6672,13 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C45" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>38</v>
@@ -6709,13 +6700,13 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6778,7 +6769,7 @@
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>314</v>
+        <v>75</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
@@ -6790,15 +6781,15 @@
         <v>38</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6907,10 +6898,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7019,10 +7010,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7062,7 +7053,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>38</v>
@@ -7133,10 +7124,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7159,7 +7150,7 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>174</v>
@@ -7243,10 +7234,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>200</v>
@@ -7357,10 +7348,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7386,13 +7377,13 @@
         <v>60</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7442,7 +7433,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
@@ -7451,7 +7442,7 @@
         <v>46</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>58</v>
@@ -7471,10 +7462,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7500,13 +7491,13 @@
         <v>88</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7535,28 +7526,28 @@
         <v>105</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
@@ -7585,10 +7576,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7614,13 +7605,13 @@
         <v>211</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7670,7 +7661,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
@@ -7685,7 +7676,7 @@
         <v>58</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>38</v>
@@ -7699,10 +7690,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7728,13 +7719,13 @@
         <v>60</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7784,7 +7775,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
@@ -7813,10 +7804,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7842,16 +7833,16 @@
         <v>173</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -7879,10 +7870,10 @@
         <v>127</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>38</v>
@@ -7900,7 +7891,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
@@ -7915,7 +7906,7 @@
         <v>58</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>38</v>
@@ -7929,10 +7920,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7955,13 +7946,13 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8012,7 +8003,7 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
@@ -8027,24 +8018,24 @@
         <v>58</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>365</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8067,16 +8058,16 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8126,7 +8117,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
@@ -8135,13 +8126,13 @@
         <v>37</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>38</v>
@@ -8155,10 +8146,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8267,10 +8258,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8381,14 +8372,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8410,16 +8401,16 @@
         <v>67</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>70</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>38</v>
@@ -8468,7 +8459,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -8497,10 +8488,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8526,16 +8517,16 @@
         <v>173</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>38</v>
@@ -8563,10 +8554,10 @@
         <v>113</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>38</v>
@@ -8584,7 +8575,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
@@ -8613,10 +8604,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8639,85 +8630,85 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="P62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q62" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="O62" t="s" s="2">
+      <c r="R62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI62" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q62" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>38</v>
@@ -8731,10 +8722,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8760,14 +8751,14 @@
         <v>287</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>38</v>
@@ -8816,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -8831,7 +8822,7 @@
         <v>58</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>38</v>
@@ -8845,10 +8836,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8871,13 +8862,13 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8928,7 +8919,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>46</v>
@@ -8943,24 +8934,24 @@
         <v>58</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>408</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8986,16 +8977,16 @@
         <v>173</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>38</v>
@@ -9023,10 +9014,10 @@
         <v>127</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>38</v>
@@ -9044,7 +9035,7 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
@@ -9053,13 +9044,13 @@
         <v>46</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>38</v>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T15:44:02+00:00</t>
+    <t>2023-07-27T13:02:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T13:02:42+00:00</t>
+    <t>2023-07-27T13:06:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="416">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T13:06:07+00:00</t>
+    <t>2023-08-31T15:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>A list is a curated collection of resources.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-3:An entry date can only be used if the mode of the list is "working" {mode = 'working' or entry.date.empty()}</t>
   </si>
   <si>
     <t>Act[classCode&lt;ORG,moodCode=EVN]</t>
@@ -1781,27 +1785,27 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1812,7 +1816,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1821,19 +1825,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1883,13 +1887,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1912,10 +1916,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1926,7 +1930,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -1935,16 +1939,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1995,19 +1999,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2024,10 +2028,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2038,7 +2042,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
@@ -2050,13 +2054,13 @@
         <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2107,13 +2111,13 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
@@ -2122,7 +2126,7 @@
         <v>38</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>38</v>
@@ -2136,14 +2140,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -2162,16 +2166,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2209,19 +2213,19 @@
         <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
@@ -2233,10 +2237,10 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>38</v>
@@ -2250,10 +2254,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2264,7 +2268,7 @@
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2273,19 +2277,19 @@
         <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2335,19 +2339,19 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -2364,10 +2368,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2378,7 +2382,7 @@
         <v>36</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>38</v>
@@ -2387,19 +2391,19 @@
         <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2449,19 +2453,19 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>38</v>
@@ -2478,10 +2482,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2492,7 +2496,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>38</v>
@@ -2501,19 +2505,19 @@
         <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2563,19 +2567,19 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2592,10 +2596,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2615,19 +2619,19 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2677,7 +2681,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2689,7 +2693,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2698,7 +2702,7 @@
         <v>38</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>38</v>
@@ -2706,10 +2710,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2729,19 +2733,19 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2767,13 +2771,13 @@
         <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>38</v>
@@ -2791,7 +2795,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -2803,7 +2807,7 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -2820,10 +2824,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2843,19 +2847,19 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2881,13 +2885,13 @@
         <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>38</v>
@@ -2905,7 +2909,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -2917,7 +2921,7 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -2934,10 +2938,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2948,28 +2952,28 @@
         <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3019,19 +3023,19 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -3048,10 +3052,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3062,7 +3066,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -3074,16 +3078,16 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3109,13 +3113,13 @@
         <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>38</v>
@@ -3133,19 +3137,19 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -3162,21 +3166,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -3188,16 +3192,16 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3247,22 +3251,22 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>38</v>
@@ -3276,24 +3280,24 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>38</v>
@@ -3302,16 +3306,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3361,7 +3365,7 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -3376,7 +3380,7 @@
         <v>38</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>38</v>
@@ -3390,10 +3394,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3401,7 +3405,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>37</v>
@@ -3416,13 +3420,13 @@
         <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3461,17 +3465,17 @@
         <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -3483,7 +3487,7 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -3500,26 +3504,26 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>38</v>
@@ -3528,13 +3532,13 @@
         <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3585,7 +3589,7 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
@@ -3594,10 +3598,10 @@
         <v>37</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -3609,15 +3613,15 @@
         <v>38</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3628,7 +3632,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -3640,13 +3644,13 @@
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3697,13 +3701,13 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
@@ -3712,7 +3716,7 @@
         <v>38</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>38</v>
@@ -3726,10 +3730,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3752,13 +3756,13 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3797,19 +3801,19 @@
         <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
@@ -3821,7 +3825,7 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
@@ -3838,10 +3842,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3849,10 +3853,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3864,16 +3868,16 @@
         <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3881,7 +3885,7 @@
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>38</v>
@@ -3923,13 +3927,13 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
@@ -3938,7 +3942,7 @@
         <v>38</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>38</v>
@@ -3952,10 +3956,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3963,10 +3967,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -3978,13 +3982,13 @@
         <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4011,42 +4015,42 @@
         <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>38</v>
@@ -4060,23 +4064,23 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4088,13 +4092,13 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4145,22 +4149,22 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>38</v>
@@ -4174,23 +4178,23 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4202,13 +4206,13 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4259,7 +4263,7 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
@@ -4271,7 +4275,7 @@
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
@@ -4283,18 +4287,18 @@
         <v>38</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>38</v>
@@ -4307,7 +4311,7 @@
         <v>37</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>38</v>
@@ -4316,13 +4320,13 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4373,7 +4377,7 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
@@ -4385,7 +4389,7 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
@@ -4402,10 +4406,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4416,7 +4420,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4428,13 +4432,13 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4485,13 +4489,13 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
@@ -4500,7 +4504,7 @@
         <v>38</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>38</v>
@@ -4514,10 +4518,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4540,13 +4544,13 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4585,19 +4589,19 @@
         <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
@@ -4609,7 +4613,7 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
@@ -4626,10 +4630,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4637,10 +4641,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4652,16 +4656,16 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4669,7 +4673,7 @@
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>38</v>
@@ -4711,13 +4715,13 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
@@ -4726,7 +4730,7 @@
         <v>38</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>38</v>
@@ -4740,10 +4744,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4751,10 +4755,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4766,13 +4770,13 @@
         <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4811,32 +4815,32 @@
         <v>38</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>38</v>
@@ -4850,23 +4854,23 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -4878,13 +4882,13 @@
         <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4935,22 +4939,22 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>38</v>
@@ -4964,13 +4968,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>38</v>
@@ -4980,7 +4984,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -4992,13 +4996,13 @@
         <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5049,7 +5053,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
@@ -5061,7 +5065,7 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
@@ -5073,15 +5077,15 @@
         <v>38</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5098,19 +5102,19 @@
         <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5161,7 +5165,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -5173,7 +5177,7 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -5190,10 +5194,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5216,13 +5220,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5261,17 +5265,17 @@
         <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
@@ -5283,16 +5287,16 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>38</v>
@@ -5300,13 +5304,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>38</v>
@@ -5316,10 +5320,10 @@
         <v>36</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>38</v>
@@ -5328,13 +5332,13 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5385,7 +5389,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -5394,13 +5398,13 @@
         <v>37</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>38</v>
@@ -5409,18 +5413,18 @@
         <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>38</v>
@@ -5433,7 +5437,7 @@
         <v>37</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>38</v>
@@ -5442,13 +5446,13 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5499,7 +5503,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -5508,13 +5512,13 @@
         <v>37</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>38</v>
@@ -5523,15 +5527,15 @@
         <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5539,31 +5543,31 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5574,7 +5578,7 @@
         <v>38</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>38</v>
@@ -5589,13 +5593,13 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>38</v>
@@ -5613,39 +5617,39 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5653,34 +5657,34 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -5690,7 +5694,7 @@
         <v>38</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>38</v>
@@ -5705,13 +5709,13 @@
         <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>38</v>
@@ -5729,28 +5733,28 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -5758,10 +5762,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5772,29 +5776,29 @@
         <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>38</v>
@@ -5807,7 +5811,7 @@
         <v>38</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>38</v>
@@ -5843,39 +5847,39 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5883,34 +5887,34 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>38</v>
@@ -5920,7 +5924,7 @@
         <v>38</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>38</v>
@@ -5935,11 +5939,11 @@
         <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>38</v>
@@ -5957,28 +5961,28 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>38</v>
@@ -5986,10 +5990,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5997,34 +6001,34 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>38</v>
@@ -6073,39 +6077,39 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6128,13 +6132,13 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6185,28 +6189,28 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>38</v>
@@ -6214,10 +6218,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6225,34 +6229,34 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6301,74 +6305,74 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
@@ -6417,28 +6421,28 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6446,10 +6450,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6460,7 +6464,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -6472,13 +6476,13 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6529,13 +6533,13 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
@@ -6544,7 +6548,7 @@
         <v>38</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>38</v>
@@ -6558,14 +6562,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6584,16 +6588,16 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6631,19 +6635,19 @@
         <v>38</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
@@ -6655,10 +6659,10 @@
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>38</v>
@@ -6672,13 +6676,13 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="B45" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="C45" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>38</v>
@@ -6688,7 +6692,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6700,13 +6704,13 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6757,7 +6761,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
@@ -6769,7 +6773,7 @@
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
@@ -6781,15 +6785,15 @@
         <v>38</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6800,7 +6804,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -6812,13 +6816,13 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6869,13 +6873,13 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
@@ -6884,7 +6888,7 @@
         <v>38</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>38</v>
@@ -6898,10 +6902,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6924,13 +6928,13 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6969,19 +6973,19 @@
         <v>38</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
@@ -6993,7 +6997,7 @@
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
@@ -7010,10 +7014,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7021,10 +7025,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7036,16 +7040,16 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7053,7 +7057,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>38</v>
@@ -7095,13 +7099,13 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
@@ -7110,7 +7114,7 @@
         <v>38</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>38</v>
@@ -7124,10 +7128,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7135,10 +7139,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
@@ -7150,13 +7154,13 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7195,32 +7199,32 @@
         <v>38</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>38</v>
@@ -7234,23 +7238,23 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7262,13 +7266,13 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7319,22 +7323,22 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>38</v>
@@ -7348,10 +7352,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7362,7 +7366,7 @@
         <v>36</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -7371,19 +7375,19 @@
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7433,22 +7437,22 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>38</v>
@@ -7462,10 +7466,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7476,7 +7480,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -7485,19 +7489,19 @@
         <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7523,13 +7527,13 @@
         <v>38</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>38</v>
@@ -7547,22 +7551,22 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>38</v>
@@ -7576,10 +7580,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7590,7 +7594,7 @@
         <v>36</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>38</v>
@@ -7599,19 +7603,19 @@
         <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7661,22 +7665,22 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>38</v>
@@ -7690,10 +7694,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7704,7 +7708,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -7713,19 +7717,19 @@
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7775,22 +7779,22 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>38</v>
@@ -7804,10 +7808,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7830,19 +7834,19 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -7867,13 +7871,13 @@
         <v>38</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>38</v>
@@ -7891,28 +7895,28 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>38</v>
@@ -7920,10 +7924,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7934,7 +7938,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -7946,13 +7950,13 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8003,7 +8007,7 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
@@ -8015,27 +8019,27 @@
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8058,16 +8062,16 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8117,7 +8121,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
@@ -8126,13 +8130,13 @@
         <v>37</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>38</v>
@@ -8146,10 +8150,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8160,7 +8164,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>38</v>
@@ -8172,13 +8176,13 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8229,13 +8233,13 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>38</v>
@@ -8244,7 +8248,7 @@
         <v>38</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>38</v>
@@ -8258,14 +8262,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8284,16 +8288,16 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8343,7 +8347,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -8355,10 +8359,10 @@
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>38</v>
@@ -8372,14 +8376,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8392,25 +8396,25 @@
         <v>38</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>38</v>
@@ -8459,7 +8463,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -8471,10 +8475,10 @@
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>38</v>
@@ -8488,10 +8492,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8514,19 +8518,19 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>38</v>
@@ -8551,13 +8555,13 @@
         <v>38</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>38</v>
@@ -8575,28 +8579,28 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>38</v>
@@ -8604,10 +8608,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8624,97 +8628,97 @@
         <v>38</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q62" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF62" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q62" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>38</v>
@@ -8722,10 +8726,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8748,17 +8752,17 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>38</v>
@@ -8807,28 +8811,28 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>38</v>
@@ -8836,10 +8840,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8847,10 +8851,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>38</v>
@@ -8862,13 +8866,13 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8919,39 +8923,39 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8974,19 +8978,19 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>38</v>
@@ -9011,13 +9015,13 @@
         <v>38</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>38</v>
@@ -9035,28 +9039,28 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>38</v>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:15:41+00:00</t>
+    <t>2023-08-31T15:17:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
